--- a/resource_api/finans/konteyner_islem/dosyalar/konteyner_ayrinti_listesi.xlsx
+++ b/resource_api/finans/konteyner_islem/dosyalar/konteyner_ayrinti_listesi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5028" yWindow="576" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
@@ -32,16 +32,22 @@
       <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
-      <sz val="14"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -73,7 +79,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -420,60 +426,70 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G453"/>
+  <dimension ref="A1:I500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G453"/>
+      <selection activeCell="I2" sqref="I2:I500"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="18.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="22.21875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Po</t>
+          <t>PO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sipariş Tarihi</t>
+          <t>S.TARİHİ</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Yükleme Tarihi</t>
+          <t>Y.TARİHİ</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Durum</t>
+          <t>DURUM</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Toplam</t>
+          <t>TOPLAM</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Ödenen</t>
+          <t>ÖDENEN</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Kalan</t>
+          <t>KALAN</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ÖDEME TARİHİ</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ÖDEME TARİHİ TUTAR</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22BERNARD01-6</t>
+          <t>18ING01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2018-12-19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,29 +498,30 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>35937.21</v>
+        <v>66012.85000000001</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>35937.21</v>
+        <v>66012.85000000001</v>
       </c>
+      <c r="I2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22BERNARD01-5</t>
+          <t>18ING01-1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2018-12-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -513,2368 +530,3011 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>23283.98</v>
+        <v>3176</v>
       </c>
       <c r="F3" s="2" t="n">
+        <v>3176</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>23283.98</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
-          <t>22BERNARD01-4</t>
+          <t>2021-12-31</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="I3" s="2" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2018-12-20</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2022-08-04</t>
-        </is>
+      <c r="I4" s="2" t="n">
+        <v>3000</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sevk Edilmiş</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>22371.22</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>22371.22</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>22BERNARD01-3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2022-02-23</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2022-04-23</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sevk Edilmiş</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>21924.67</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>21591.08</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>333.5899999999965</v>
-      </c>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>22BERNARD01-2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2022-02-23</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2022-03-18</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sevk Edilmiş</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>12910.1</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>12910.1</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>22BERNARD01-1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2022-02-23</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2022-03-07</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Sevk Edilmiş</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>13127.6</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>13127.6</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
       <c r="G15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
       <c r="G16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
       <c r="G18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
       <c r="G19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
       <c r="G20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
       <c r="G21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
       <c r="G22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
       <c r="G23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
       <c r="G24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
       <c r="G25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
       <c r="G26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
       <c r="G27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
       <c r="G28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
     </row>
     <row r="29">
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
       <c r="G29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
       <c r="G31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
       <c r="G32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
       <c r="G33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
       <c r="G34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
       <c r="G35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
       <c r="G36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
       <c r="G37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
       <c r="G38" s="2" t="n"/>
+      <c r="I38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
       <c r="G39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
       <c r="G40" s="2" t="n"/>
+      <c r="I40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
       <c r="G41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
       <c r="G42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
       <c r="G43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
       <c r="G44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
       <c r="G45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
       <c r="G46" s="2" t="n"/>
+      <c r="I46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
       <c r="G47" s="2" t="n"/>
+      <c r="I47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
       <c r="G48" s="2" t="n"/>
+      <c r="I48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
       <c r="G49" s="2" t="n"/>
+      <c r="I49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
       <c r="G50" s="2" t="n"/>
+      <c r="I50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
       <c r="G51" s="2" t="n"/>
+      <c r="I51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
       <c r="G52" s="2" t="n"/>
+      <c r="I52" s="2" t="n"/>
     </row>
     <row r="53">
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
       <c r="G53" s="2" t="n"/>
+      <c r="I53" s="2" t="n"/>
     </row>
     <row r="54">
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
       <c r="G54" s="2" t="n"/>
+      <c r="I54" s="2" t="n"/>
     </row>
     <row r="55">
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
       <c r="G55" s="2" t="n"/>
+      <c r="I55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
       <c r="G56" s="2" t="n"/>
+      <c r="I56" s="2" t="n"/>
     </row>
     <row r="57">
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
       <c r="G57" s="2" t="n"/>
+      <c r="I57" s="2" t="n"/>
     </row>
     <row r="58">
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
       <c r="G58" s="2" t="n"/>
+      <c r="I58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
       <c r="G59" s="2" t="n"/>
+      <c r="I59" s="2" t="n"/>
     </row>
     <row r="60">
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
       <c r="G60" s="2" t="n"/>
+      <c r="I60" s="2" t="n"/>
     </row>
     <row r="61">
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
       <c r="G61" s="2" t="n"/>
+      <c r="I61" s="2" t="n"/>
     </row>
     <row r="62">
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
       <c r="G62" s="2" t="n"/>
+      <c r="I62" s="2" t="n"/>
     </row>
     <row r="63">
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
       <c r="G63" s="2" t="n"/>
+      <c r="I63" s="2" t="n"/>
     </row>
     <row r="64">
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
       <c r="G64" s="2" t="n"/>
+      <c r="I64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
       <c r="G65" s="2" t="n"/>
+      <c r="I65" s="2" t="n"/>
     </row>
     <row r="66">
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
       <c r="G66" s="2" t="n"/>
+      <c r="I66" s="2" t="n"/>
     </row>
     <row r="67">
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
       <c r="G67" s="2" t="n"/>
+      <c r="I67" s="2" t="n"/>
     </row>
     <row r="68">
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
       <c r="G68" s="2" t="n"/>
+      <c r="I68" s="2" t="n"/>
     </row>
     <row r="69">
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
       <c r="G69" s="2" t="n"/>
+      <c r="I69" s="2" t="n"/>
     </row>
     <row r="70">
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
       <c r="G70" s="2" t="n"/>
+      <c r="I70" s="2" t="n"/>
     </row>
     <row r="71">
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
       <c r="G71" s="2" t="n"/>
+      <c r="I71" s="2" t="n"/>
     </row>
     <row r="72">
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
       <c r="G72" s="2" t="n"/>
+      <c r="I72" s="2" t="n"/>
     </row>
     <row r="73">
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
       <c r="G73" s="2" t="n"/>
+      <c r="I73" s="2" t="n"/>
     </row>
     <row r="74">
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
       <c r="G74" s="2" t="n"/>
+      <c r="I74" s="2" t="n"/>
     </row>
     <row r="75">
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
       <c r="G75" s="2" t="n"/>
+      <c r="I75" s="2" t="n"/>
     </row>
     <row r="76">
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
       <c r="G76" s="2" t="n"/>
+      <c r="I76" s="2" t="n"/>
     </row>
     <row r="77">
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
       <c r="G77" s="2" t="n"/>
+      <c r="I77" s="2" t="n"/>
     </row>
     <row r="78">
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
       <c r="G78" s="2" t="n"/>
+      <c r="I78" s="2" t="n"/>
     </row>
     <row r="79">
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
       <c r="G79" s="2" t="n"/>
+      <c r="I79" s="2" t="n"/>
     </row>
     <row r="80">
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
       <c r="G80" s="2" t="n"/>
+      <c r="I80" s="2" t="n"/>
     </row>
     <row r="81">
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
       <c r="G81" s="2" t="n"/>
+      <c r="I81" s="2" t="n"/>
     </row>
     <row r="82">
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
       <c r="G82" s="2" t="n"/>
+      <c r="I82" s="2" t="n"/>
     </row>
     <row r="83">
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
       <c r="G83" s="2" t="n"/>
+      <c r="I83" s="2" t="n"/>
     </row>
     <row r="84">
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
       <c r="G84" s="2" t="n"/>
+      <c r="I84" s="2" t="n"/>
     </row>
     <row r="85">
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
       <c r="G85" s="2" t="n"/>
+      <c r="I85" s="2" t="n"/>
     </row>
     <row r="86">
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
       <c r="G86" s="2" t="n"/>
+      <c r="I86" s="2" t="n"/>
     </row>
     <row r="87">
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
       <c r="G87" s="2" t="n"/>
+      <c r="I87" s="2" t="n"/>
     </row>
     <row r="88">
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
       <c r="G88" s="2" t="n"/>
+      <c r="I88" s="2" t="n"/>
     </row>
     <row r="89">
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
       <c r="G89" s="2" t="n"/>
+      <c r="I89" s="2" t="n"/>
     </row>
     <row r="90">
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
       <c r="G90" s="2" t="n"/>
+      <c r="I90" s="2" t="n"/>
     </row>
     <row r="91">
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
       <c r="G91" s="2" t="n"/>
+      <c r="I91" s="2" t="n"/>
     </row>
     <row r="92">
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
       <c r="G92" s="2" t="n"/>
+      <c r="I92" s="2" t="n"/>
     </row>
     <row r="93">
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
       <c r="G93" s="2" t="n"/>
+      <c r="I93" s="2" t="n"/>
     </row>
     <row r="94">
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
       <c r="G94" s="2" t="n"/>
+      <c r="I94" s="2" t="n"/>
     </row>
     <row r="95">
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
       <c r="G95" s="2" t="n"/>
+      <c r="I95" s="2" t="n"/>
     </row>
     <row r="96">
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
       <c r="G96" s="2" t="n"/>
+      <c r="I96" s="2" t="n"/>
     </row>
     <row r="97">
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
       <c r="G97" s="2" t="n"/>
+      <c r="I97" s="2" t="n"/>
     </row>
     <row r="98">
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
       <c r="G98" s="2" t="n"/>
+      <c r="I98" s="2" t="n"/>
     </row>
     <row r="99">
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
       <c r="G99" s="2" t="n"/>
+      <c r="I99" s="2" t="n"/>
     </row>
     <row r="100">
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
       <c r="G100" s="2" t="n"/>
+      <c r="I100" s="2" t="n"/>
     </row>
     <row r="101">
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
       <c r="G101" s="2" t="n"/>
+      <c r="I101" s="2" t="n"/>
     </row>
     <row r="102">
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
+      <c r="I102" s="2" t="n"/>
     </row>
     <row r="103">
       <c r="E103" s="2" t="n"/>
       <c r="F103" s="2" t="n"/>
       <c r="G103" s="2" t="n"/>
+      <c r="I103" s="2" t="n"/>
     </row>
     <row r="104">
       <c r="E104" s="2" t="n"/>
       <c r="F104" s="2" t="n"/>
       <c r="G104" s="2" t="n"/>
+      <c r="I104" s="2" t="n"/>
     </row>
     <row r="105">
       <c r="E105" s="2" t="n"/>
       <c r="F105" s="2" t="n"/>
       <c r="G105" s="2" t="n"/>
+      <c r="I105" s="2" t="n"/>
     </row>
     <row r="106">
       <c r="E106" s="2" t="n"/>
       <c r="F106" s="2" t="n"/>
       <c r="G106" s="2" t="n"/>
+      <c r="I106" s="2" t="n"/>
     </row>
     <row r="107">
       <c r="E107" s="2" t="n"/>
       <c r="F107" s="2" t="n"/>
       <c r="G107" s="2" t="n"/>
+      <c r="I107" s="2" t="n"/>
     </row>
     <row r="108">
       <c r="E108" s="2" t="n"/>
       <c r="F108" s="2" t="n"/>
       <c r="G108" s="2" t="n"/>
+      <c r="I108" s="2" t="n"/>
     </row>
     <row r="109">
       <c r="E109" s="2" t="n"/>
       <c r="F109" s="2" t="n"/>
       <c r="G109" s="2" t="n"/>
+      <c r="I109" s="2" t="n"/>
     </row>
     <row r="110">
       <c r="E110" s="2" t="n"/>
       <c r="F110" s="2" t="n"/>
       <c r="G110" s="2" t="n"/>
+      <c r="I110" s="2" t="n"/>
     </row>
     <row r="111">
       <c r="E111" s="2" t="n"/>
       <c r="F111" s="2" t="n"/>
       <c r="G111" s="2" t="n"/>
+      <c r="I111" s="2" t="n"/>
     </row>
     <row r="112">
       <c r="E112" s="2" t="n"/>
       <c r="F112" s="2" t="n"/>
       <c r="G112" s="2" t="n"/>
+      <c r="I112" s="2" t="n"/>
     </row>
     <row r="113">
       <c r="E113" s="2" t="n"/>
       <c r="F113" s="2" t="n"/>
       <c r="G113" s="2" t="n"/>
+      <c r="I113" s="2" t="n"/>
     </row>
     <row r="114">
       <c r="E114" s="2" t="n"/>
       <c r="F114" s="2" t="n"/>
       <c r="G114" s="2" t="n"/>
+      <c r="I114" s="2" t="n"/>
     </row>
     <row r="115">
       <c r="E115" s="2" t="n"/>
       <c r="F115" s="2" t="n"/>
       <c r="G115" s="2" t="n"/>
+      <c r="I115" s="2" t="n"/>
     </row>
     <row r="116">
       <c r="E116" s="2" t="n"/>
       <c r="F116" s="2" t="n"/>
       <c r="G116" s="2" t="n"/>
+      <c r="I116" s="2" t="n"/>
     </row>
     <row r="117">
       <c r="E117" s="2" t="n"/>
       <c r="F117" s="2" t="n"/>
       <c r="G117" s="2" t="n"/>
+      <c r="I117" s="2" t="n"/>
     </row>
     <row r="118">
       <c r="E118" s="2" t="n"/>
       <c r="F118" s="2" t="n"/>
       <c r="G118" s="2" t="n"/>
+      <c r="I118" s="2" t="n"/>
     </row>
     <row r="119">
       <c r="E119" s="2" t="n"/>
       <c r="F119" s="2" t="n"/>
       <c r="G119" s="2" t="n"/>
+      <c r="I119" s="2" t="n"/>
     </row>
     <row r="120">
       <c r="E120" s="2" t="n"/>
       <c r="F120" s="2" t="n"/>
       <c r="G120" s="2" t="n"/>
+      <c r="I120" s="2" t="n"/>
     </row>
     <row r="121">
       <c r="E121" s="2" t="n"/>
       <c r="F121" s="2" t="n"/>
       <c r="G121" s="2" t="n"/>
+      <c r="I121" s="2" t="n"/>
     </row>
     <row r="122">
       <c r="E122" s="2" t="n"/>
       <c r="F122" s="2" t="n"/>
       <c r="G122" s="2" t="n"/>
+      <c r="I122" s="2" t="n"/>
     </row>
     <row r="123">
       <c r="E123" s="2" t="n"/>
       <c r="F123" s="2" t="n"/>
       <c r="G123" s="2" t="n"/>
+      <c r="I123" s="2" t="n"/>
     </row>
     <row r="124">
       <c r="E124" s="2" t="n"/>
       <c r="F124" s="2" t="n"/>
       <c r="G124" s="2" t="n"/>
+      <c r="I124" s="2" t="n"/>
     </row>
     <row r="125">
       <c r="E125" s="2" t="n"/>
       <c r="F125" s="2" t="n"/>
       <c r="G125" s="2" t="n"/>
+      <c r="I125" s="2" t="n"/>
     </row>
     <row r="126">
       <c r="E126" s="2" t="n"/>
       <c r="F126" s="2" t="n"/>
       <c r="G126" s="2" t="n"/>
+      <c r="I126" s="2" t="n"/>
     </row>
     <row r="127">
       <c r="E127" s="2" t="n"/>
       <c r="F127" s="2" t="n"/>
       <c r="G127" s="2" t="n"/>
+      <c r="I127" s="2" t="n"/>
     </row>
     <row r="128">
       <c r="E128" s="2" t="n"/>
       <c r="F128" s="2" t="n"/>
       <c r="G128" s="2" t="n"/>
+      <c r="I128" s="2" t="n"/>
     </row>
     <row r="129">
       <c r="E129" s="2" t="n"/>
       <c r="F129" s="2" t="n"/>
       <c r="G129" s="2" t="n"/>
+      <c r="I129" s="2" t="n"/>
     </row>
     <row r="130">
       <c r="E130" s="2" t="n"/>
       <c r="F130" s="2" t="n"/>
       <c r="G130" s="2" t="n"/>
+      <c r="I130" s="2" t="n"/>
     </row>
     <row r="131">
       <c r="E131" s="2" t="n"/>
       <c r="F131" s="2" t="n"/>
       <c r="G131" s="2" t="n"/>
+      <c r="I131" s="2" t="n"/>
     </row>
     <row r="132">
       <c r="E132" s="2" t="n"/>
       <c r="F132" s="2" t="n"/>
       <c r="G132" s="2" t="n"/>
+      <c r="I132" s="2" t="n"/>
     </row>
     <row r="133">
       <c r="E133" s="2" t="n"/>
       <c r="F133" s="2" t="n"/>
       <c r="G133" s="2" t="n"/>
+      <c r="I133" s="2" t="n"/>
     </row>
     <row r="134">
       <c r="E134" s="2" t="n"/>
       <c r="F134" s="2" t="n"/>
       <c r="G134" s="2" t="n"/>
+      <c r="I134" s="2" t="n"/>
     </row>
     <row r="135">
       <c r="E135" s="2" t="n"/>
       <c r="F135" s="2" t="n"/>
       <c r="G135" s="2" t="n"/>
+      <c r="I135" s="2" t="n"/>
     </row>
     <row r="136">
       <c r="E136" s="2" t="n"/>
       <c r="F136" s="2" t="n"/>
       <c r="G136" s="2" t="n"/>
+      <c r="I136" s="2" t="n"/>
     </row>
     <row r="137">
       <c r="E137" s="2" t="n"/>
       <c r="F137" s="2" t="n"/>
       <c r="G137" s="2" t="n"/>
+      <c r="I137" s="2" t="n"/>
     </row>
     <row r="138">
       <c r="E138" s="2" t="n"/>
       <c r="F138" s="2" t="n"/>
       <c r="G138" s="2" t="n"/>
+      <c r="I138" s="2" t="n"/>
     </row>
     <row r="139">
       <c r="E139" s="2" t="n"/>
       <c r="F139" s="2" t="n"/>
       <c r="G139" s="2" t="n"/>
+      <c r="I139" s="2" t="n"/>
     </row>
     <row r="140">
       <c r="E140" s="2" t="n"/>
       <c r="F140" s="2" t="n"/>
       <c r="G140" s="2" t="n"/>
+      <c r="I140" s="2" t="n"/>
     </row>
     <row r="141">
       <c r="E141" s="2" t="n"/>
       <c r="F141" s="2" t="n"/>
       <c r="G141" s="2" t="n"/>
+      <c r="I141" s="2" t="n"/>
     </row>
     <row r="142">
       <c r="E142" s="2" t="n"/>
       <c r="F142" s="2" t="n"/>
       <c r="G142" s="2" t="n"/>
+      <c r="I142" s="2" t="n"/>
     </row>
     <row r="143">
       <c r="E143" s="2" t="n"/>
       <c r="F143" s="2" t="n"/>
       <c r="G143" s="2" t="n"/>
+      <c r="I143" s="2" t="n"/>
     </row>
     <row r="144">
       <c r="E144" s="2" t="n"/>
       <c r="F144" s="2" t="n"/>
       <c r="G144" s="2" t="n"/>
+      <c r="I144" s="2" t="n"/>
     </row>
     <row r="145">
       <c r="E145" s="2" t="n"/>
       <c r="F145" s="2" t="n"/>
       <c r="G145" s="2" t="n"/>
+      <c r="I145" s="2" t="n"/>
     </row>
     <row r="146">
       <c r="E146" s="2" t="n"/>
       <c r="F146" s="2" t="n"/>
       <c r="G146" s="2" t="n"/>
+      <c r="I146" s="2" t="n"/>
     </row>
     <row r="147">
       <c r="E147" s="2" t="n"/>
       <c r="F147" s="2" t="n"/>
       <c r="G147" s="2" t="n"/>
+      <c r="I147" s="2" t="n"/>
     </row>
     <row r="148">
       <c r="E148" s="2" t="n"/>
       <c r="F148" s="2" t="n"/>
       <c r="G148" s="2" t="n"/>
+      <c r="I148" s="2" t="n"/>
     </row>
     <row r="149">
       <c r="E149" s="2" t="n"/>
       <c r="F149" s="2" t="n"/>
       <c r="G149" s="2" t="n"/>
+      <c r="I149" s="2" t="n"/>
     </row>
     <row r="150">
       <c r="E150" s="2" t="n"/>
       <c r="F150" s="2" t="n"/>
       <c r="G150" s="2" t="n"/>
+      <c r="I150" s="2" t="n"/>
     </row>
     <row r="151">
       <c r="E151" s="2" t="n"/>
       <c r="F151" s="2" t="n"/>
       <c r="G151" s="2" t="n"/>
+      <c r="I151" s="2" t="n"/>
     </row>
     <row r="152">
       <c r="E152" s="2" t="n"/>
       <c r="F152" s="2" t="n"/>
       <c r="G152" s="2" t="n"/>
+      <c r="I152" s="2" t="n"/>
     </row>
     <row r="153">
       <c r="E153" s="2" t="n"/>
       <c r="F153" s="2" t="n"/>
       <c r="G153" s="2" t="n"/>
+      <c r="I153" s="2" t="n"/>
     </row>
     <row r="154">
       <c r="E154" s="2" t="n"/>
       <c r="F154" s="2" t="n"/>
       <c r="G154" s="2" t="n"/>
+      <c r="I154" s="2" t="n"/>
     </row>
     <row r="155">
       <c r="E155" s="2" t="n"/>
       <c r="F155" s="2" t="n"/>
       <c r="G155" s="2" t="n"/>
+      <c r="I155" s="2" t="n"/>
     </row>
     <row r="156">
       <c r="E156" s="2" t="n"/>
       <c r="F156" s="2" t="n"/>
       <c r="G156" s="2" t="n"/>
+      <c r="I156" s="2" t="n"/>
     </row>
     <row r="157">
       <c r="E157" s="2" t="n"/>
       <c r="F157" s="2" t="n"/>
       <c r="G157" s="2" t="n"/>
+      <c r="I157" s="2" t="n"/>
     </row>
     <row r="158">
       <c r="E158" s="2" t="n"/>
       <c r="F158" s="2" t="n"/>
       <c r="G158" s="2" t="n"/>
+      <c r="I158" s="2" t="n"/>
     </row>
     <row r="159">
       <c r="E159" s="2" t="n"/>
       <c r="F159" s="2" t="n"/>
       <c r="G159" s="2" t="n"/>
+      <c r="I159" s="2" t="n"/>
     </row>
     <row r="160">
       <c r="E160" s="2" t="n"/>
       <c r="F160" s="2" t="n"/>
       <c r="G160" s="2" t="n"/>
+      <c r="I160" s="2" t="n"/>
     </row>
     <row r="161">
       <c r="E161" s="2" t="n"/>
       <c r="F161" s="2" t="n"/>
       <c r="G161" s="2" t="n"/>
+      <c r="I161" s="2" t="n"/>
     </row>
     <row r="162">
       <c r="E162" s="2" t="n"/>
       <c r="F162" s="2" t="n"/>
       <c r="G162" s="2" t="n"/>
+      <c r="I162" s="2" t="n"/>
     </row>
     <row r="163">
       <c r="E163" s="2" t="n"/>
       <c r="F163" s="2" t="n"/>
       <c r="G163" s="2" t="n"/>
+      <c r="I163" s="2" t="n"/>
     </row>
     <row r="164">
       <c r="E164" s="2" t="n"/>
       <c r="F164" s="2" t="n"/>
       <c r="G164" s="2" t="n"/>
+      <c r="I164" s="2" t="n"/>
     </row>
     <row r="165">
       <c r="E165" s="2" t="n"/>
       <c r="F165" s="2" t="n"/>
       <c r="G165" s="2" t="n"/>
+      <c r="I165" s="2" t="n"/>
     </row>
     <row r="166">
       <c r="E166" s="2" t="n"/>
       <c r="F166" s="2" t="n"/>
       <c r="G166" s="2" t="n"/>
+      <c r="I166" s="2" t="n"/>
     </row>
     <row r="167">
       <c r="E167" s="2" t="n"/>
       <c r="F167" s="2" t="n"/>
       <c r="G167" s="2" t="n"/>
+      <c r="I167" s="2" t="n"/>
     </row>
     <row r="168">
       <c r="E168" s="2" t="n"/>
       <c r="F168" s="2" t="n"/>
       <c r="G168" s="2" t="n"/>
+      <c r="I168" s="2" t="n"/>
     </row>
     <row r="169">
       <c r="E169" s="2" t="n"/>
       <c r="F169" s="2" t="n"/>
       <c r="G169" s="2" t="n"/>
+      <c r="I169" s="2" t="n"/>
     </row>
     <row r="170">
       <c r="E170" s="2" t="n"/>
       <c r="F170" s="2" t="n"/>
       <c r="G170" s="2" t="n"/>
+      <c r="I170" s="2" t="n"/>
     </row>
     <row r="171">
       <c r="E171" s="2" t="n"/>
       <c r="F171" s="2" t="n"/>
       <c r="G171" s="2" t="n"/>
+      <c r="I171" s="2" t="n"/>
     </row>
     <row r="172">
       <c r="E172" s="2" t="n"/>
       <c r="F172" s="2" t="n"/>
       <c r="G172" s="2" t="n"/>
+      <c r="I172" s="2" t="n"/>
     </row>
     <row r="173">
       <c r="E173" s="2" t="n"/>
       <c r="F173" s="2" t="n"/>
       <c r="G173" s="2" t="n"/>
+      <c r="I173" s="2" t="n"/>
     </row>
     <row r="174">
       <c r="E174" s="2" t="n"/>
       <c r="F174" s="2" t="n"/>
       <c r="G174" s="2" t="n"/>
+      <c r="I174" s="2" t="n"/>
     </row>
     <row r="175">
       <c r="E175" s="2" t="n"/>
       <c r="F175" s="2" t="n"/>
       <c r="G175" s="2" t="n"/>
+      <c r="I175" s="2" t="n"/>
     </row>
     <row r="176">
       <c r="E176" s="2" t="n"/>
       <c r="F176" s="2" t="n"/>
       <c r="G176" s="2" t="n"/>
+      <c r="I176" s="2" t="n"/>
     </row>
     <row r="177">
       <c r="E177" s="2" t="n"/>
       <c r="F177" s="2" t="n"/>
       <c r="G177" s="2" t="n"/>
+      <c r="I177" s="2" t="n"/>
     </row>
     <row r="178">
       <c r="E178" s="2" t="n"/>
       <c r="F178" s="2" t="n"/>
       <c r="G178" s="2" t="n"/>
+      <c r="I178" s="2" t="n"/>
     </row>
     <row r="179">
       <c r="E179" s="2" t="n"/>
       <c r="F179" s="2" t="n"/>
       <c r="G179" s="2" t="n"/>
+      <c r="I179" s="2" t="n"/>
     </row>
     <row r="180">
       <c r="E180" s="2" t="n"/>
       <c r="F180" s="2" t="n"/>
       <c r="G180" s="2" t="n"/>
+      <c r="I180" s="2" t="n"/>
     </row>
     <row r="181">
       <c r="E181" s="2" t="n"/>
       <c r="F181" s="2" t="n"/>
       <c r="G181" s="2" t="n"/>
+      <c r="I181" s="2" t="n"/>
     </row>
     <row r="182">
       <c r="E182" s="2" t="n"/>
       <c r="F182" s="2" t="n"/>
       <c r="G182" s="2" t="n"/>
+      <c r="I182" s="2" t="n"/>
     </row>
     <row r="183">
       <c r="E183" s="2" t="n"/>
       <c r="F183" s="2" t="n"/>
       <c r="G183" s="2" t="n"/>
+      <c r="I183" s="2" t="n"/>
     </row>
     <row r="184">
       <c r="E184" s="2" t="n"/>
       <c r="F184" s="2" t="n"/>
       <c r="G184" s="2" t="n"/>
+      <c r="I184" s="2" t="n"/>
     </row>
     <row r="185">
       <c r="E185" s="2" t="n"/>
       <c r="F185" s="2" t="n"/>
       <c r="G185" s="2" t="n"/>
+      <c r="I185" s="2" t="n"/>
     </row>
     <row r="186">
       <c r="E186" s="2" t="n"/>
       <c r="F186" s="2" t="n"/>
       <c r="G186" s="2" t="n"/>
+      <c r="I186" s="2" t="n"/>
     </row>
     <row r="187">
       <c r="E187" s="2" t="n"/>
       <c r="F187" s="2" t="n"/>
       <c r="G187" s="2" t="n"/>
+      <c r="I187" s="2" t="n"/>
     </row>
     <row r="188">
       <c r="E188" s="2" t="n"/>
       <c r="F188" s="2" t="n"/>
       <c r="G188" s="2" t="n"/>
+      <c r="I188" s="2" t="n"/>
     </row>
     <row r="189">
       <c r="E189" s="2" t="n"/>
       <c r="F189" s="2" t="n"/>
       <c r="G189" s="2" t="n"/>
+      <c r="I189" s="2" t="n"/>
     </row>
     <row r="190">
       <c r="E190" s="2" t="n"/>
       <c r="F190" s="2" t="n"/>
       <c r="G190" s="2" t="n"/>
+      <c r="I190" s="2" t="n"/>
     </row>
     <row r="191">
       <c r="E191" s="2" t="n"/>
       <c r="F191" s="2" t="n"/>
       <c r="G191" s="2" t="n"/>
+      <c r="I191" s="2" t="n"/>
     </row>
     <row r="192">
       <c r="E192" s="2" t="n"/>
       <c r="F192" s="2" t="n"/>
       <c r="G192" s="2" t="n"/>
+      <c r="I192" s="2" t="n"/>
     </row>
     <row r="193">
       <c r="E193" s="2" t="n"/>
       <c r="F193" s="2" t="n"/>
       <c r="G193" s="2" t="n"/>
+      <c r="I193" s="2" t="n"/>
     </row>
     <row r="194">
       <c r="E194" s="2" t="n"/>
       <c r="F194" s="2" t="n"/>
       <c r="G194" s="2" t="n"/>
+      <c r="I194" s="2" t="n"/>
     </row>
     <row r="195">
       <c r="E195" s="2" t="n"/>
       <c r="F195" s="2" t="n"/>
       <c r="G195" s="2" t="n"/>
+      <c r="I195" s="2" t="n"/>
     </row>
     <row r="196">
       <c r="E196" s="2" t="n"/>
       <c r="F196" s="2" t="n"/>
       <c r="G196" s="2" t="n"/>
+      <c r="I196" s="2" t="n"/>
     </row>
     <row r="197">
       <c r="E197" s="2" t="n"/>
       <c r="F197" s="2" t="n"/>
       <c r="G197" s="2" t="n"/>
+      <c r="I197" s="2" t="n"/>
     </row>
     <row r="198">
       <c r="E198" s="2" t="n"/>
       <c r="F198" s="2" t="n"/>
       <c r="G198" s="2" t="n"/>
+      <c r="I198" s="2" t="n"/>
     </row>
     <row r="199">
       <c r="E199" s="2" t="n"/>
       <c r="F199" s="2" t="n"/>
       <c r="G199" s="2" t="n"/>
+      <c r="I199" s="2" t="n"/>
     </row>
     <row r="200">
       <c r="E200" s="2" t="n"/>
       <c r="F200" s="2" t="n"/>
       <c r="G200" s="2" t="n"/>
+      <c r="I200" s="2" t="n"/>
     </row>
     <row r="201">
       <c r="E201" s="2" t="n"/>
       <c r="F201" s="2" t="n"/>
       <c r="G201" s="2" t="n"/>
+      <c r="I201" s="2" t="n"/>
     </row>
     <row r="202">
       <c r="E202" s="2" t="n"/>
       <c r="F202" s="2" t="n"/>
       <c r="G202" s="2" t="n"/>
+      <c r="I202" s="2" t="n"/>
     </row>
     <row r="203">
       <c r="E203" s="2" t="n"/>
       <c r="F203" s="2" t="n"/>
       <c r="G203" s="2" t="n"/>
+      <c r="I203" s="2" t="n"/>
     </row>
     <row r="204">
       <c r="E204" s="2" t="n"/>
       <c r="F204" s="2" t="n"/>
       <c r="G204" s="2" t="n"/>
+      <c r="I204" s="2" t="n"/>
     </row>
     <row r="205">
       <c r="E205" s="2" t="n"/>
       <c r="F205" s="2" t="n"/>
       <c r="G205" s="2" t="n"/>
+      <c r="I205" s="2" t="n"/>
     </row>
     <row r="206">
       <c r="E206" s="2" t="n"/>
       <c r="F206" s="2" t="n"/>
       <c r="G206" s="2" t="n"/>
+      <c r="I206" s="2" t="n"/>
     </row>
     <row r="207">
       <c r="E207" s="2" t="n"/>
       <c r="F207" s="2" t="n"/>
       <c r="G207" s="2" t="n"/>
+      <c r="I207" s="2" t="n"/>
     </row>
     <row r="208">
       <c r="E208" s="2" t="n"/>
       <c r="F208" s="2" t="n"/>
       <c r="G208" s="2" t="n"/>
+      <c r="I208" s="2" t="n"/>
     </row>
     <row r="209">
       <c r="E209" s="2" t="n"/>
       <c r="F209" s="2" t="n"/>
       <c r="G209" s="2" t="n"/>
+      <c r="I209" s="2" t="n"/>
     </row>
     <row r="210">
       <c r="E210" s="2" t="n"/>
       <c r="F210" s="2" t="n"/>
       <c r="G210" s="2" t="n"/>
+      <c r="I210" s="2" t="n"/>
     </row>
     <row r="211">
       <c r="E211" s="2" t="n"/>
       <c r="F211" s="2" t="n"/>
       <c r="G211" s="2" t="n"/>
+      <c r="I211" s="2" t="n"/>
     </row>
     <row r="212">
       <c r="E212" s="2" t="n"/>
       <c r="F212" s="2" t="n"/>
       <c r="G212" s="2" t="n"/>
+      <c r="I212" s="2" t="n"/>
     </row>
     <row r="213">
       <c r="E213" s="2" t="n"/>
       <c r="F213" s="2" t="n"/>
       <c r="G213" s="2" t="n"/>
+      <c r="I213" s="2" t="n"/>
     </row>
     <row r="214">
       <c r="E214" s="2" t="n"/>
       <c r="F214" s="2" t="n"/>
       <c r="G214" s="2" t="n"/>
+      <c r="I214" s="2" t="n"/>
     </row>
     <row r="215">
       <c r="E215" s="2" t="n"/>
       <c r="F215" s="2" t="n"/>
       <c r="G215" s="2" t="n"/>
+      <c r="I215" s="2" t="n"/>
     </row>
     <row r="216">
       <c r="E216" s="2" t="n"/>
       <c r="F216" s="2" t="n"/>
       <c r="G216" s="2" t="n"/>
+      <c r="I216" s="2" t="n"/>
     </row>
     <row r="217">
       <c r="E217" s="2" t="n"/>
       <c r="F217" s="2" t="n"/>
       <c r="G217" s="2" t="n"/>
+      <c r="I217" s="2" t="n"/>
     </row>
     <row r="218">
       <c r="E218" s="2" t="n"/>
       <c r="F218" s="2" t="n"/>
       <c r="G218" s="2" t="n"/>
+      <c r="I218" s="2" t="n"/>
     </row>
     <row r="219">
       <c r="E219" s="2" t="n"/>
       <c r="F219" s="2" t="n"/>
       <c r="G219" s="2" t="n"/>
+      <c r="I219" s="2" t="n"/>
     </row>
     <row r="220">
       <c r="E220" s="2" t="n"/>
       <c r="F220" s="2" t="n"/>
       <c r="G220" s="2" t="n"/>
+      <c r="I220" s="2" t="n"/>
     </row>
     <row r="221">
       <c r="E221" s="2" t="n"/>
       <c r="F221" s="2" t="n"/>
       <c r="G221" s="2" t="n"/>
+      <c r="I221" s="2" t="n"/>
     </row>
     <row r="222">
       <c r="E222" s="2" t="n"/>
       <c r="F222" s="2" t="n"/>
       <c r="G222" s="2" t="n"/>
+      <c r="I222" s="2" t="n"/>
     </row>
     <row r="223">
       <c r="E223" s="2" t="n"/>
       <c r="F223" s="2" t="n"/>
       <c r="G223" s="2" t="n"/>
+      <c r="I223" s="2" t="n"/>
     </row>
     <row r="224">
       <c r="E224" s="2" t="n"/>
       <c r="F224" s="2" t="n"/>
       <c r="G224" s="2" t="n"/>
+      <c r="I224" s="2" t="n"/>
     </row>
     <row r="225">
       <c r="E225" s="2" t="n"/>
       <c r="F225" s="2" t="n"/>
       <c r="G225" s="2" t="n"/>
+      <c r="I225" s="2" t="n"/>
     </row>
     <row r="226">
       <c r="E226" s="2" t="n"/>
       <c r="F226" s="2" t="n"/>
       <c r="G226" s="2" t="n"/>
+      <c r="I226" s="2" t="n"/>
     </row>
     <row r="227">
       <c r="E227" s="2" t="n"/>
       <c r="F227" s="2" t="n"/>
       <c r="G227" s="2" t="n"/>
+      <c r="I227" s="2" t="n"/>
     </row>
     <row r="228">
       <c r="E228" s="2" t="n"/>
       <c r="F228" s="2" t="n"/>
       <c r="G228" s="2" t="n"/>
+      <c r="I228" s="2" t="n"/>
     </row>
     <row r="229">
       <c r="E229" s="2" t="n"/>
       <c r="F229" s="2" t="n"/>
       <c r="G229" s="2" t="n"/>
+      <c r="I229" s="2" t="n"/>
     </row>
     <row r="230">
       <c r="E230" s="2" t="n"/>
       <c r="F230" s="2" t="n"/>
       <c r="G230" s="2" t="n"/>
+      <c r="I230" s="2" t="n"/>
     </row>
     <row r="231">
       <c r="E231" s="2" t="n"/>
       <c r="F231" s="2" t="n"/>
       <c r="G231" s="2" t="n"/>
+      <c r="I231" s="2" t="n"/>
     </row>
     <row r="232">
       <c r="E232" s="2" t="n"/>
       <c r="F232" s="2" t="n"/>
       <c r="G232" s="2" t="n"/>
+      <c r="I232" s="2" t="n"/>
     </row>
     <row r="233">
       <c r="E233" s="2" t="n"/>
       <c r="F233" s="2" t="n"/>
       <c r="G233" s="2" t="n"/>
+      <c r="I233" s="2" t="n"/>
     </row>
     <row r="234">
       <c r="E234" s="2" t="n"/>
       <c r="F234" s="2" t="n"/>
       <c r="G234" s="2" t="n"/>
+      <c r="I234" s="2" t="n"/>
     </row>
     <row r="235">
       <c r="E235" s="2" t="n"/>
       <c r="F235" s="2" t="n"/>
       <c r="G235" s="2" t="n"/>
+      <c r="I235" s="2" t="n"/>
     </row>
     <row r="236">
       <c r="E236" s="2" t="n"/>
       <c r="F236" s="2" t="n"/>
       <c r="G236" s="2" t="n"/>
+      <c r="I236" s="2" t="n"/>
     </row>
     <row r="237">
       <c r="E237" s="2" t="n"/>
       <c r="F237" s="2" t="n"/>
       <c r="G237" s="2" t="n"/>
+      <c r="I237" s="2" t="n"/>
     </row>
     <row r="238">
       <c r="E238" s="2" t="n"/>
       <c r="F238" s="2" t="n"/>
       <c r="G238" s="2" t="n"/>
+      <c r="I238" s="2" t="n"/>
     </row>
     <row r="239">
       <c r="E239" s="2" t="n"/>
       <c r="F239" s="2" t="n"/>
       <c r="G239" s="2" t="n"/>
+      <c r="I239" s="2" t="n"/>
     </row>
     <row r="240">
       <c r="E240" s="2" t="n"/>
       <c r="F240" s="2" t="n"/>
       <c r="G240" s="2" t="n"/>
+      <c r="I240" s="2" t="n"/>
     </row>
     <row r="241">
       <c r="E241" s="2" t="n"/>
       <c r="F241" s="2" t="n"/>
       <c r="G241" s="2" t="n"/>
+      <c r="I241" s="2" t="n"/>
     </row>
     <row r="242">
       <c r="E242" s="2" t="n"/>
       <c r="F242" s="2" t="n"/>
       <c r="G242" s="2" t="n"/>
+      <c r="I242" s="2" t="n"/>
     </row>
     <row r="243">
       <c r="E243" s="2" t="n"/>
       <c r="F243" s="2" t="n"/>
       <c r="G243" s="2" t="n"/>
+      <c r="I243" s="2" t="n"/>
     </row>
     <row r="244">
       <c r="E244" s="2" t="n"/>
       <c r="F244" s="2" t="n"/>
       <c r="G244" s="2" t="n"/>
+      <c r="I244" s="2" t="n"/>
     </row>
     <row r="245">
       <c r="E245" s="2" t="n"/>
       <c r="F245" s="2" t="n"/>
       <c r="G245" s="2" t="n"/>
+      <c r="I245" s="2" t="n"/>
     </row>
     <row r="246">
       <c r="E246" s="2" t="n"/>
       <c r="F246" s="2" t="n"/>
       <c r="G246" s="2" t="n"/>
+      <c r="I246" s="2" t="n"/>
     </row>
     <row r="247">
       <c r="E247" s="2" t="n"/>
       <c r="F247" s="2" t="n"/>
       <c r="G247" s="2" t="n"/>
+      <c r="I247" s="2" t="n"/>
     </row>
     <row r="248">
       <c r="E248" s="2" t="n"/>
       <c r="F248" s="2" t="n"/>
       <c r="G248" s="2" t="n"/>
+      <c r="I248" s="2" t="n"/>
     </row>
     <row r="249">
       <c r="E249" s="2" t="n"/>
       <c r="F249" s="2" t="n"/>
       <c r="G249" s="2" t="n"/>
+      <c r="I249" s="2" t="n"/>
     </row>
     <row r="250">
       <c r="E250" s="2" t="n"/>
       <c r="F250" s="2" t="n"/>
       <c r="G250" s="2" t="n"/>
+      <c r="I250" s="2" t="n"/>
     </row>
     <row r="251">
       <c r="E251" s="2" t="n"/>
       <c r="F251" s="2" t="n"/>
       <c r="G251" s="2" t="n"/>
+      <c r="I251" s="2" t="n"/>
     </row>
     <row r="252">
       <c r="E252" s="2" t="n"/>
       <c r="F252" s="2" t="n"/>
       <c r="G252" s="2" t="n"/>
+      <c r="I252" s="2" t="n"/>
     </row>
     <row r="253">
       <c r="E253" s="2" t="n"/>
       <c r="F253" s="2" t="n"/>
       <c r="G253" s="2" t="n"/>
+      <c r="I253" s="2" t="n"/>
     </row>
     <row r="254">
       <c r="E254" s="2" t="n"/>
       <c r="F254" s="2" t="n"/>
       <c r="G254" s="2" t="n"/>
+      <c r="I254" s="2" t="n"/>
     </row>
     <row r="255">
       <c r="E255" s="2" t="n"/>
       <c r="F255" s="2" t="n"/>
       <c r="G255" s="2" t="n"/>
+      <c r="I255" s="2" t="n"/>
     </row>
     <row r="256">
       <c r="E256" s="2" t="n"/>
       <c r="F256" s="2" t="n"/>
       <c r="G256" s="2" t="n"/>
+      <c r="I256" s="2" t="n"/>
     </row>
     <row r="257">
       <c r="E257" s="2" t="n"/>
       <c r="F257" s="2" t="n"/>
       <c r="G257" s="2" t="n"/>
+      <c r="I257" s="2" t="n"/>
     </row>
     <row r="258">
       <c r="E258" s="2" t="n"/>
       <c r="F258" s="2" t="n"/>
       <c r="G258" s="2" t="n"/>
+      <c r="I258" s="2" t="n"/>
     </row>
     <row r="259">
       <c r="E259" s="2" t="n"/>
       <c r="F259" s="2" t="n"/>
       <c r="G259" s="2" t="n"/>
+      <c r="I259" s="2" t="n"/>
     </row>
     <row r="260">
       <c r="E260" s="2" t="n"/>
       <c r="F260" s="2" t="n"/>
       <c r="G260" s="2" t="n"/>
+      <c r="I260" s="2" t="n"/>
     </row>
     <row r="261">
       <c r="E261" s="2" t="n"/>
       <c r="F261" s="2" t="n"/>
       <c r="G261" s="2" t="n"/>
+      <c r="I261" s="2" t="n"/>
     </row>
     <row r="262">
       <c r="E262" s="2" t="n"/>
       <c r="F262" s="2" t="n"/>
       <c r="G262" s="2" t="n"/>
+      <c r="I262" s="2" t="n"/>
     </row>
     <row r="263">
       <c r="E263" s="2" t="n"/>
       <c r="F263" s="2" t="n"/>
       <c r="G263" s="2" t="n"/>
+      <c r="I263" s="2" t="n"/>
     </row>
     <row r="264">
       <c r="E264" s="2" t="n"/>
       <c r="F264" s="2" t="n"/>
       <c r="G264" s="2" t="n"/>
+      <c r="I264" s="2" t="n"/>
     </row>
     <row r="265">
       <c r="E265" s="2" t="n"/>
       <c r="F265" s="2" t="n"/>
       <c r="G265" s="2" t="n"/>
+      <c r="I265" s="2" t="n"/>
     </row>
     <row r="266">
       <c r="E266" s="2" t="n"/>
       <c r="F266" s="2" t="n"/>
       <c r="G266" s="2" t="n"/>
+      <c r="I266" s="2" t="n"/>
     </row>
     <row r="267">
       <c r="E267" s="2" t="n"/>
       <c r="F267" s="2" t="n"/>
       <c r="G267" s="2" t="n"/>
+      <c r="I267" s="2" t="n"/>
     </row>
     <row r="268">
       <c r="E268" s="2" t="n"/>
       <c r="F268" s="2" t="n"/>
       <c r="G268" s="2" t="n"/>
+      <c r="I268" s="2" t="n"/>
     </row>
     <row r="269">
       <c r="E269" s="2" t="n"/>
       <c r="F269" s="2" t="n"/>
       <c r="G269" s="2" t="n"/>
+      <c r="I269" s="2" t="n"/>
     </row>
     <row r="270">
       <c r="E270" s="2" t="n"/>
       <c r="F270" s="2" t="n"/>
       <c r="G270" s="2" t="n"/>
+      <c r="I270" s="2" t="n"/>
     </row>
     <row r="271">
       <c r="E271" s="2" t="n"/>
       <c r="F271" s="2" t="n"/>
       <c r="G271" s="2" t="n"/>
+      <c r="I271" s="2" t="n"/>
     </row>
     <row r="272">
       <c r="E272" s="2" t="n"/>
       <c r="F272" s="2" t="n"/>
       <c r="G272" s="2" t="n"/>
+      <c r="I272" s="2" t="n"/>
     </row>
     <row r="273">
       <c r="E273" s="2" t="n"/>
       <c r="F273" s="2" t="n"/>
       <c r="G273" s="2" t="n"/>
+      <c r="I273" s="2" t="n"/>
     </row>
     <row r="274">
       <c r="E274" s="2" t="n"/>
       <c r="F274" s="2" t="n"/>
       <c r="G274" s="2" t="n"/>
+      <c r="I274" s="2" t="n"/>
     </row>
     <row r="275">
       <c r="E275" s="2" t="n"/>
       <c r="F275" s="2" t="n"/>
       <c r="G275" s="2" t="n"/>
+      <c r="I275" s="2" t="n"/>
     </row>
     <row r="276">
       <c r="E276" s="2" t="n"/>
       <c r="F276" s="2" t="n"/>
       <c r="G276" s="2" t="n"/>
+      <c r="I276" s="2" t="n"/>
     </row>
     <row r="277">
       <c r="E277" s="2" t="n"/>
       <c r="F277" s="2" t="n"/>
       <c r="G277" s="2" t="n"/>
+      <c r="I277" s="2" t="n"/>
     </row>
     <row r="278">
       <c r="E278" s="2" t="n"/>
       <c r="F278" s="2" t="n"/>
       <c r="G278" s="2" t="n"/>
+      <c r="I278" s="2" t="n"/>
     </row>
     <row r="279">
       <c r="E279" s="2" t="n"/>
       <c r="F279" s="2" t="n"/>
       <c r="G279" s="2" t="n"/>
+      <c r="I279" s="2" t="n"/>
     </row>
     <row r="280">
       <c r="E280" s="2" t="n"/>
       <c r="F280" s="2" t="n"/>
       <c r="G280" s="2" t="n"/>
+      <c r="I280" s="2" t="n"/>
     </row>
     <row r="281">
       <c r="E281" s="2" t="n"/>
       <c r="F281" s="2" t="n"/>
       <c r="G281" s="2" t="n"/>
+      <c r="I281" s="2" t="n"/>
     </row>
     <row r="282">
       <c r="E282" s="2" t="n"/>
       <c r="F282" s="2" t="n"/>
       <c r="G282" s="2" t="n"/>
+      <c r="I282" s="2" t="n"/>
     </row>
     <row r="283">
       <c r="E283" s="2" t="n"/>
       <c r="F283" s="2" t="n"/>
       <c r="G283" s="2" t="n"/>
+      <c r="I283" s="2" t="n"/>
     </row>
     <row r="284">
       <c r="E284" s="2" t="n"/>
       <c r="F284" s="2" t="n"/>
       <c r="G284" s="2" t="n"/>
+      <c r="I284" s="2" t="n"/>
     </row>
     <row r="285">
       <c r="E285" s="2" t="n"/>
       <c r="F285" s="2" t="n"/>
       <c r="G285" s="2" t="n"/>
+      <c r="I285" s="2" t="n"/>
     </row>
     <row r="286">
       <c r="E286" s="2" t="n"/>
       <c r="F286" s="2" t="n"/>
       <c r="G286" s="2" t="n"/>
+      <c r="I286" s="2" t="n"/>
     </row>
     <row r="287">
       <c r="E287" s="2" t="n"/>
       <c r="F287" s="2" t="n"/>
       <c r="G287" s="2" t="n"/>
+      <c r="I287" s="2" t="n"/>
     </row>
     <row r="288">
       <c r="E288" s="2" t="n"/>
       <c r="F288" s="2" t="n"/>
       <c r="G288" s="2" t="n"/>
+      <c r="I288" s="2" t="n"/>
     </row>
     <row r="289">
       <c r="E289" s="2" t="n"/>
       <c r="F289" s="2" t="n"/>
       <c r="G289" s="2" t="n"/>
+      <c r="I289" s="2" t="n"/>
     </row>
     <row r="290">
       <c r="E290" s="2" t="n"/>
       <c r="F290" s="2" t="n"/>
       <c r="G290" s="2" t="n"/>
+      <c r="I290" s="2" t="n"/>
     </row>
     <row r="291">
       <c r="E291" s="2" t="n"/>
       <c r="F291" s="2" t="n"/>
       <c r="G291" s="2" t="n"/>
+      <c r="I291" s="2" t="n"/>
     </row>
     <row r="292">
       <c r="E292" s="2" t="n"/>
       <c r="F292" s="2" t="n"/>
       <c r="G292" s="2" t="n"/>
+      <c r="I292" s="2" t="n"/>
     </row>
     <row r="293">
       <c r="E293" s="2" t="n"/>
       <c r="F293" s="2" t="n"/>
       <c r="G293" s="2" t="n"/>
+      <c r="I293" s="2" t="n"/>
     </row>
     <row r="294">
       <c r="E294" s="2" t="n"/>
       <c r="F294" s="2" t="n"/>
       <c r="G294" s="2" t="n"/>
+      <c r="I294" s="2" t="n"/>
     </row>
     <row r="295">
       <c r="E295" s="2" t="n"/>
       <c r="F295" s="2" t="n"/>
       <c r="G295" s="2" t="n"/>
+      <c r="I295" s="2" t="n"/>
     </row>
     <row r="296">
       <c r="E296" s="2" t="n"/>
       <c r="F296" s="2" t="n"/>
       <c r="G296" s="2" t="n"/>
+      <c r="I296" s="2" t="n"/>
     </row>
     <row r="297">
       <c r="E297" s="2" t="n"/>
       <c r="F297" s="2" t="n"/>
       <c r="G297" s="2" t="n"/>
+      <c r="I297" s="2" t="n"/>
     </row>
     <row r="298">
       <c r="E298" s="2" t="n"/>
       <c r="F298" s="2" t="n"/>
       <c r="G298" s="2" t="n"/>
+      <c r="I298" s="2" t="n"/>
     </row>
     <row r="299">
       <c r="E299" s="2" t="n"/>
       <c r="F299" s="2" t="n"/>
       <c r="G299" s="2" t="n"/>
+      <c r="I299" s="2" t="n"/>
     </row>
     <row r="300">
       <c r="E300" s="2" t="n"/>
       <c r="F300" s="2" t="n"/>
       <c r="G300" s="2" t="n"/>
+      <c r="I300" s="2" t="n"/>
     </row>
     <row r="301">
       <c r="E301" s="2" t="n"/>
       <c r="F301" s="2" t="n"/>
       <c r="G301" s="2" t="n"/>
+      <c r="I301" s="2" t="n"/>
     </row>
     <row r="302">
       <c r="E302" s="2" t="n"/>
       <c r="F302" s="2" t="n"/>
       <c r="G302" s="2" t="n"/>
+      <c r="I302" s="2" t="n"/>
     </row>
     <row r="303">
       <c r="E303" s="2" t="n"/>
       <c r="F303" s="2" t="n"/>
       <c r="G303" s="2" t="n"/>
+      <c r="I303" s="2" t="n"/>
     </row>
     <row r="304">
       <c r="E304" s="2" t="n"/>
       <c r="F304" s="2" t="n"/>
       <c r="G304" s="2" t="n"/>
+      <c r="I304" s="2" t="n"/>
     </row>
     <row r="305">
       <c r="E305" s="2" t="n"/>
       <c r="F305" s="2" t="n"/>
       <c r="G305" s="2" t="n"/>
+      <c r="I305" s="2" t="n"/>
     </row>
     <row r="306">
       <c r="E306" s="2" t="n"/>
       <c r="F306" s="2" t="n"/>
       <c r="G306" s="2" t="n"/>
+      <c r="I306" s="2" t="n"/>
     </row>
     <row r="307">
       <c r="E307" s="2" t="n"/>
       <c r="F307" s="2" t="n"/>
       <c r="G307" s="2" t="n"/>
+      <c r="I307" s="2" t="n"/>
     </row>
     <row r="308">
       <c r="E308" s="2" t="n"/>
       <c r="F308" s="2" t="n"/>
       <c r="G308" s="2" t="n"/>
+      <c r="I308" s="2" t="n"/>
     </row>
     <row r="309">
       <c r="E309" s="2" t="n"/>
       <c r="F309" s="2" t="n"/>
       <c r="G309" s="2" t="n"/>
+      <c r="I309" s="2" t="n"/>
     </row>
     <row r="310">
       <c r="E310" s="2" t="n"/>
       <c r="F310" s="2" t="n"/>
       <c r="G310" s="2" t="n"/>
+      <c r="I310" s="2" t="n"/>
     </row>
     <row r="311">
       <c r="E311" s="2" t="n"/>
       <c r="F311" s="2" t="n"/>
       <c r="G311" s="2" t="n"/>
+      <c r="I311" s="2" t="n"/>
     </row>
     <row r="312">
       <c r="E312" s="2" t="n"/>
       <c r="F312" s="2" t="n"/>
       <c r="G312" s="2" t="n"/>
+      <c r="I312" s="2" t="n"/>
     </row>
     <row r="313">
       <c r="E313" s="2" t="n"/>
       <c r="F313" s="2" t="n"/>
       <c r="G313" s="2" t="n"/>
+      <c r="I313" s="2" t="n"/>
     </row>
     <row r="314">
       <c r="E314" s="2" t="n"/>
       <c r="F314" s="2" t="n"/>
       <c r="G314" s="2" t="n"/>
+      <c r="I314" s="2" t="n"/>
     </row>
     <row r="315">
       <c r="E315" s="2" t="n"/>
       <c r="F315" s="2" t="n"/>
       <c r="G315" s="2" t="n"/>
+      <c r="I315" s="2" t="n"/>
     </row>
     <row r="316">
       <c r="E316" s="2" t="n"/>
       <c r="F316" s="2" t="n"/>
       <c r="G316" s="2" t="n"/>
+      <c r="I316" s="2" t="n"/>
     </row>
     <row r="317">
       <c r="E317" s="2" t="n"/>
       <c r="F317" s="2" t="n"/>
       <c r="G317" s="2" t="n"/>
+      <c r="I317" s="2" t="n"/>
     </row>
     <row r="318">
       <c r="E318" s="2" t="n"/>
       <c r="F318" s="2" t="n"/>
       <c r="G318" s="2" t="n"/>
+      <c r="I318" s="2" t="n"/>
     </row>
     <row r="319">
       <c r="E319" s="2" t="n"/>
       <c r="F319" s="2" t="n"/>
       <c r="G319" s="2" t="n"/>
+      <c r="I319" s="2" t="n"/>
     </row>
     <row r="320">
       <c r="E320" s="2" t="n"/>
       <c r="F320" s="2" t="n"/>
       <c r="G320" s="2" t="n"/>
+      <c r="I320" s="2" t="n"/>
     </row>
     <row r="321">
       <c r="E321" s="2" t="n"/>
       <c r="F321" s="2" t="n"/>
       <c r="G321" s="2" t="n"/>
+      <c r="I321" s="2" t="n"/>
     </row>
     <row r="322">
       <c r="E322" s="2" t="n"/>
       <c r="F322" s="2" t="n"/>
       <c r="G322" s="2" t="n"/>
+      <c r="I322" s="2" t="n"/>
     </row>
     <row r="323">
       <c r="E323" s="2" t="n"/>
       <c r="F323" s="2" t="n"/>
       <c r="G323" s="2" t="n"/>
+      <c r="I323" s="2" t="n"/>
     </row>
     <row r="324">
       <c r="E324" s="2" t="n"/>
       <c r="F324" s="2" t="n"/>
       <c r="G324" s="2" t="n"/>
+      <c r="I324" s="2" t="n"/>
     </row>
     <row r="325">
       <c r="E325" s="2" t="n"/>
       <c r="F325" s="2" t="n"/>
       <c r="G325" s="2" t="n"/>
+      <c r="I325" s="2" t="n"/>
     </row>
     <row r="326">
       <c r="E326" s="2" t="n"/>
       <c r="F326" s="2" t="n"/>
       <c r="G326" s="2" t="n"/>
+      <c r="I326" s="2" t="n"/>
     </row>
     <row r="327">
       <c r="E327" s="2" t="n"/>
       <c r="F327" s="2" t="n"/>
       <c r="G327" s="2" t="n"/>
+      <c r="I327" s="2" t="n"/>
     </row>
     <row r="328">
       <c r="E328" s="2" t="n"/>
       <c r="F328" s="2" t="n"/>
       <c r="G328" s="2" t="n"/>
+      <c r="I328" s="2" t="n"/>
     </row>
     <row r="329">
       <c r="E329" s="2" t="n"/>
       <c r="F329" s="2" t="n"/>
       <c r="G329" s="2" t="n"/>
+      <c r="I329" s="2" t="n"/>
     </row>
     <row r="330">
       <c r="E330" s="2" t="n"/>
       <c r="F330" s="2" t="n"/>
       <c r="G330" s="2" t="n"/>
+      <c r="I330" s="2" t="n"/>
     </row>
     <row r="331">
       <c r="E331" s="2" t="n"/>
       <c r="F331" s="2" t="n"/>
       <c r="G331" s="2" t="n"/>
+      <c r="I331" s="2" t="n"/>
     </row>
     <row r="332">
       <c r="E332" s="2" t="n"/>
       <c r="F332" s="2" t="n"/>
       <c r="G332" s="2" t="n"/>
+      <c r="I332" s="2" t="n"/>
     </row>
     <row r="333">
       <c r="E333" s="2" t="n"/>
       <c r="F333" s="2" t="n"/>
       <c r="G333" s="2" t="n"/>
+      <c r="I333" s="2" t="n"/>
     </row>
     <row r="334">
       <c r="E334" s="2" t="n"/>
       <c r="F334" s="2" t="n"/>
       <c r="G334" s="2" t="n"/>
+      <c r="I334" s="2" t="n"/>
     </row>
     <row r="335">
       <c r="E335" s="2" t="n"/>
       <c r="F335" s="2" t="n"/>
       <c r="G335" s="2" t="n"/>
+      <c r="I335" s="2" t="n"/>
     </row>
     <row r="336">
       <c r="E336" s="2" t="n"/>
       <c r="F336" s="2" t="n"/>
       <c r="G336" s="2" t="n"/>
+      <c r="I336" s="2" t="n"/>
     </row>
     <row r="337">
       <c r="E337" s="2" t="n"/>
       <c r="F337" s="2" t="n"/>
       <c r="G337" s="2" t="n"/>
+      <c r="I337" s="2" t="n"/>
     </row>
     <row r="338">
       <c r="E338" s="2" t="n"/>
       <c r="F338" s="2" t="n"/>
       <c r="G338" s="2" t="n"/>
+      <c r="I338" s="2" t="n"/>
     </row>
     <row r="339">
       <c r="E339" s="2" t="n"/>
       <c r="F339" s="2" t="n"/>
       <c r="G339" s="2" t="n"/>
+      <c r="I339" s="2" t="n"/>
     </row>
     <row r="340">
       <c r="E340" s="2" t="n"/>
       <c r="F340" s="2" t="n"/>
       <c r="G340" s="2" t="n"/>
+      <c r="I340" s="2" t="n"/>
     </row>
     <row r="341">
       <c r="E341" s="2" t="n"/>
       <c r="F341" s="2" t="n"/>
       <c r="G341" s="2" t="n"/>
+      <c r="I341" s="2" t="n"/>
     </row>
     <row r="342">
       <c r="E342" s="2" t="n"/>
       <c r="F342" s="2" t="n"/>
       <c r="G342" s="2" t="n"/>
+      <c r="I342" s="2" t="n"/>
     </row>
     <row r="343">
       <c r="E343" s="2" t="n"/>
       <c r="F343" s="2" t="n"/>
       <c r="G343" s="2" t="n"/>
+      <c r="I343" s="2" t="n"/>
     </row>
     <row r="344">
       <c r="E344" s="2" t="n"/>
       <c r="F344" s="2" t="n"/>
       <c r="G344" s="2" t="n"/>
+      <c r="I344" s="2" t="n"/>
     </row>
     <row r="345">
       <c r="E345" s="2" t="n"/>
       <c r="F345" s="2" t="n"/>
       <c r="G345" s="2" t="n"/>
+      <c r="I345" s="2" t="n"/>
     </row>
     <row r="346">
       <c r="E346" s="2" t="n"/>
       <c r="F346" s="2" t="n"/>
       <c r="G346" s="2" t="n"/>
+      <c r="I346" s="2" t="n"/>
     </row>
     <row r="347">
       <c r="E347" s="2" t="n"/>
       <c r="F347" s="2" t="n"/>
       <c r="G347" s="2" t="n"/>
+      <c r="I347" s="2" t="n"/>
     </row>
     <row r="348">
       <c r="E348" s="2" t="n"/>
       <c r="F348" s="2" t="n"/>
       <c r="G348" s="2" t="n"/>
+      <c r="I348" s="2" t="n"/>
     </row>
     <row r="349">
       <c r="E349" s="2" t="n"/>
       <c r="F349" s="2" t="n"/>
       <c r="G349" s="2" t="n"/>
+      <c r="I349" s="2" t="n"/>
     </row>
     <row r="350">
       <c r="E350" s="2" t="n"/>
       <c r="F350" s="2" t="n"/>
       <c r="G350" s="2" t="n"/>
+      <c r="I350" s="2" t="n"/>
     </row>
     <row r="351">
       <c r="E351" s="2" t="n"/>
       <c r="F351" s="2" t="n"/>
       <c r="G351" s="2" t="n"/>
+      <c r="I351" s="2" t="n"/>
     </row>
     <row r="352">
       <c r="E352" s="2" t="n"/>
       <c r="F352" s="2" t="n"/>
       <c r="G352" s="2" t="n"/>
+      <c r="I352" s="2" t="n"/>
     </row>
     <row r="353">
       <c r="E353" s="2" t="n"/>
       <c r="F353" s="2" t="n"/>
       <c r="G353" s="2" t="n"/>
+      <c r="I353" s="2" t="n"/>
     </row>
     <row r="354">
       <c r="E354" s="2" t="n"/>
       <c r="F354" s="2" t="n"/>
       <c r="G354" s="2" t="n"/>
+      <c r="I354" s="2" t="n"/>
     </row>
     <row r="355">
       <c r="E355" s="2" t="n"/>
       <c r="F355" s="2" t="n"/>
       <c r="G355" s="2" t="n"/>
+      <c r="I355" s="2" t="n"/>
     </row>
     <row r="356">
       <c r="E356" s="2" t="n"/>
       <c r="F356" s="2" t="n"/>
       <c r="G356" s="2" t="n"/>
+      <c r="I356" s="2" t="n"/>
     </row>
     <row r="357">
       <c r="E357" s="2" t="n"/>
       <c r="F357" s="2" t="n"/>
       <c r="G357" s="2" t="n"/>
+      <c r="I357" s="2" t="n"/>
     </row>
     <row r="358">
       <c r="E358" s="2" t="n"/>
       <c r="F358" s="2" t="n"/>
       <c r="G358" s="2" t="n"/>
+      <c r="I358" s="2" t="n"/>
     </row>
     <row r="359">
       <c r="E359" s="2" t="n"/>
       <c r="F359" s="2" t="n"/>
       <c r="G359" s="2" t="n"/>
+      <c r="I359" s="2" t="n"/>
     </row>
     <row r="360">
       <c r="E360" s="2" t="n"/>
       <c r="F360" s="2" t="n"/>
       <c r="G360" s="2" t="n"/>
+      <c r="I360" s="2" t="n"/>
     </row>
     <row r="361">
       <c r="E361" s="2" t="n"/>
       <c r="F361" s="2" t="n"/>
       <c r="G361" s="2" t="n"/>
+      <c r="I361" s="2" t="n"/>
     </row>
     <row r="362">
       <c r="E362" s="2" t="n"/>
       <c r="F362" s="2" t="n"/>
       <c r="G362" s="2" t="n"/>
+      <c r="I362" s="2" t="n"/>
     </row>
     <row r="363">
       <c r="E363" s="2" t="n"/>
       <c r="F363" s="2" t="n"/>
       <c r="G363" s="2" t="n"/>
+      <c r="I363" s="2" t="n"/>
     </row>
     <row r="364">
       <c r="E364" s="2" t="n"/>
       <c r="F364" s="2" t="n"/>
       <c r="G364" s="2" t="n"/>
+      <c r="I364" s="2" t="n"/>
     </row>
     <row r="365">
       <c r="E365" s="2" t="n"/>
       <c r="F365" s="2" t="n"/>
       <c r="G365" s="2" t="n"/>
+      <c r="I365" s="2" t="n"/>
     </row>
     <row r="366">
       <c r="E366" s="2" t="n"/>
       <c r="F366" s="2" t="n"/>
       <c r="G366" s="2" t="n"/>
+      <c r="I366" s="2" t="n"/>
     </row>
     <row r="367">
       <c r="E367" s="2" t="n"/>
       <c r="F367" s="2" t="n"/>
       <c r="G367" s="2" t="n"/>
+      <c r="I367" s="2" t="n"/>
     </row>
     <row r="368">
       <c r="E368" s="2" t="n"/>
       <c r="F368" s="2" t="n"/>
       <c r="G368" s="2" t="n"/>
+      <c r="I368" s="2" t="n"/>
     </row>
     <row r="369">
       <c r="E369" s="2" t="n"/>
       <c r="F369" s="2" t="n"/>
       <c r="G369" s="2" t="n"/>
+      <c r="I369" s="2" t="n"/>
     </row>
     <row r="370">
       <c r="E370" s="2" t="n"/>
       <c r="F370" s="2" t="n"/>
       <c r="G370" s="2" t="n"/>
+      <c r="I370" s="2" t="n"/>
     </row>
     <row r="371">
       <c r="E371" s="2" t="n"/>
       <c r="F371" s="2" t="n"/>
       <c r="G371" s="2" t="n"/>
+      <c r="I371" s="2" t="n"/>
     </row>
     <row r="372">
       <c r="E372" s="2" t="n"/>
       <c r="F372" s="2" t="n"/>
       <c r="G372" s="2" t="n"/>
+      <c r="I372" s="2" t="n"/>
     </row>
     <row r="373">
       <c r="E373" s="2" t="n"/>
       <c r="F373" s="2" t="n"/>
       <c r="G373" s="2" t="n"/>
+      <c r="I373" s="2" t="n"/>
     </row>
     <row r="374">
       <c r="E374" s="2" t="n"/>
       <c r="F374" s="2" t="n"/>
       <c r="G374" s="2" t="n"/>
+      <c r="I374" s="2" t="n"/>
     </row>
     <row r="375">
       <c r="E375" s="2" t="n"/>
       <c r="F375" s="2" t="n"/>
       <c r="G375" s="2" t="n"/>
+      <c r="I375" s="2" t="n"/>
     </row>
     <row r="376">
       <c r="E376" s="2" t="n"/>
       <c r="F376" s="2" t="n"/>
       <c r="G376" s="2" t="n"/>
+      <c r="I376" s="2" t="n"/>
     </row>
     <row r="377">
       <c r="E377" s="2" t="n"/>
       <c r="F377" s="2" t="n"/>
       <c r="G377" s="2" t="n"/>
+      <c r="I377" s="2" t="n"/>
     </row>
     <row r="378">
       <c r="E378" s="2" t="n"/>
       <c r="F378" s="2" t="n"/>
       <c r="G378" s="2" t="n"/>
+      <c r="I378" s="2" t="n"/>
     </row>
     <row r="379">
       <c r="E379" s="2" t="n"/>
       <c r="F379" s="2" t="n"/>
       <c r="G379" s="2" t="n"/>
+      <c r="I379" s="2" t="n"/>
     </row>
     <row r="380">
       <c r="E380" s="2" t="n"/>
       <c r="F380" s="2" t="n"/>
       <c r="G380" s="2" t="n"/>
+      <c r="I380" s="2" t="n"/>
     </row>
     <row r="381">
       <c r="E381" s="2" t="n"/>
       <c r="F381" s="2" t="n"/>
       <c r="G381" s="2" t="n"/>
+      <c r="I381" s="2" t="n"/>
     </row>
     <row r="382">
       <c r="E382" s="2" t="n"/>
       <c r="F382" s="2" t="n"/>
       <c r="G382" s="2" t="n"/>
+      <c r="I382" s="2" t="n"/>
     </row>
     <row r="383">
       <c r="E383" s="2" t="n"/>
       <c r="F383" s="2" t="n"/>
       <c r="G383" s="2" t="n"/>
+      <c r="I383" s="2" t="n"/>
     </row>
     <row r="384">
       <c r="E384" s="2" t="n"/>
       <c r="F384" s="2" t="n"/>
       <c r="G384" s="2" t="n"/>
+      <c r="I384" s="2" t="n"/>
     </row>
     <row r="385">
       <c r="E385" s="2" t="n"/>
       <c r="F385" s="2" t="n"/>
       <c r="G385" s="2" t="n"/>
+      <c r="I385" s="2" t="n"/>
     </row>
     <row r="386">
       <c r="E386" s="2" t="n"/>
       <c r="F386" s="2" t="n"/>
       <c r="G386" s="2" t="n"/>
+      <c r="I386" s="2" t="n"/>
     </row>
     <row r="387">
       <c r="E387" s="2" t="n"/>
       <c r="F387" s="2" t="n"/>
       <c r="G387" s="2" t="n"/>
+      <c r="I387" s="2" t="n"/>
     </row>
     <row r="388">
       <c r="E388" s="2" t="n"/>
       <c r="F388" s="2" t="n"/>
       <c r="G388" s="2" t="n"/>
+      <c r="I388" s="2" t="n"/>
     </row>
     <row r="389">
       <c r="E389" s="2" t="n"/>
       <c r="F389" s="2" t="n"/>
       <c r="G389" s="2" t="n"/>
+      <c r="I389" s="2" t="n"/>
     </row>
     <row r="390">
       <c r="E390" s="2" t="n"/>
       <c r="F390" s="2" t="n"/>
       <c r="G390" s="2" t="n"/>
+      <c r="I390" s="2" t="n"/>
     </row>
     <row r="391">
       <c r="E391" s="2" t="n"/>
       <c r="F391" s="2" t="n"/>
       <c r="G391" s="2" t="n"/>
+      <c r="I391" s="2" t="n"/>
     </row>
     <row r="392">
       <c r="E392" s="2" t="n"/>
       <c r="F392" s="2" t="n"/>
       <c r="G392" s="2" t="n"/>
+      <c r="I392" s="2" t="n"/>
     </row>
     <row r="393">
       <c r="E393" s="2" t="n"/>
       <c r="F393" s="2" t="n"/>
       <c r="G393" s="2" t="n"/>
+      <c r="I393" s="2" t="n"/>
     </row>
     <row r="394">
       <c r="E394" s="2" t="n"/>
       <c r="F394" s="2" t="n"/>
       <c r="G394" s="2" t="n"/>
+      <c r="I394" s="2" t="n"/>
     </row>
     <row r="395">
       <c r="E395" s="2" t="n"/>
       <c r="F395" s="2" t="n"/>
       <c r="G395" s="2" t="n"/>
+      <c r="I395" s="2" t="n"/>
     </row>
     <row r="396">
       <c r="E396" s="2" t="n"/>
       <c r="F396" s="2" t="n"/>
       <c r="G396" s="2" t="n"/>
+      <c r="I396" s="2" t="n"/>
     </row>
     <row r="397">
       <c r="E397" s="2" t="n"/>
       <c r="F397" s="2" t="n"/>
       <c r="G397" s="2" t="n"/>
+      <c r="I397" s="2" t="n"/>
     </row>
     <row r="398">
       <c r="E398" s="2" t="n"/>
       <c r="F398" s="2" t="n"/>
       <c r="G398" s="2" t="n"/>
+      <c r="I398" s="2" t="n"/>
     </row>
     <row r="399">
       <c r="E399" s="2" t="n"/>
       <c r="F399" s="2" t="n"/>
       <c r="G399" s="2" t="n"/>
+      <c r="I399" s="2" t="n"/>
     </row>
     <row r="400">
       <c r="E400" s="2" t="n"/>
       <c r="F400" s="2" t="n"/>
       <c r="G400" s="2" t="n"/>
+      <c r="I400" s="2" t="n"/>
     </row>
     <row r="401">
       <c r="E401" s="2" t="n"/>
       <c r="F401" s="2" t="n"/>
       <c r="G401" s="2" t="n"/>
+      <c r="I401" s="2" t="n"/>
     </row>
     <row r="402">
       <c r="E402" s="2" t="n"/>
       <c r="F402" s="2" t="n"/>
       <c r="G402" s="2" t="n"/>
+      <c r="I402" s="2" t="n"/>
     </row>
     <row r="403">
       <c r="E403" s="2" t="n"/>
       <c r="F403" s="2" t="n"/>
       <c r="G403" s="2" t="n"/>
+      <c r="I403" s="2" t="n"/>
     </row>
     <row r="404">
       <c r="E404" s="2" t="n"/>
       <c r="F404" s="2" t="n"/>
       <c r="G404" s="2" t="n"/>
+      <c r="I404" s="2" t="n"/>
     </row>
     <row r="405">
       <c r="E405" s="2" t="n"/>
       <c r="F405" s="2" t="n"/>
       <c r="G405" s="2" t="n"/>
+      <c r="I405" s="2" t="n"/>
     </row>
     <row r="406">
       <c r="E406" s="2" t="n"/>
       <c r="F406" s="2" t="n"/>
       <c r="G406" s="2" t="n"/>
+      <c r="I406" s="2" t="n"/>
     </row>
     <row r="407">
       <c r="E407" s="2" t="n"/>
       <c r="F407" s="2" t="n"/>
       <c r="G407" s="2" t="n"/>
+      <c r="I407" s="2" t="n"/>
     </row>
     <row r="408">
       <c r="E408" s="2" t="n"/>
       <c r="F408" s="2" t="n"/>
       <c r="G408" s="2" t="n"/>
+      <c r="I408" s="2" t="n"/>
     </row>
     <row r="409">
       <c r="E409" s="2" t="n"/>
       <c r="F409" s="2" t="n"/>
       <c r="G409" s="2" t="n"/>
+      <c r="I409" s="2" t="n"/>
     </row>
     <row r="410">
       <c r="E410" s="2" t="n"/>
       <c r="F410" s="2" t="n"/>
       <c r="G410" s="2" t="n"/>
+      <c r="I410" s="2" t="n"/>
     </row>
     <row r="411">
       <c r="E411" s="2" t="n"/>
       <c r="F411" s="2" t="n"/>
       <c r="G411" s="2" t="n"/>
+      <c r="I411" s="2" t="n"/>
     </row>
     <row r="412">
       <c r="E412" s="2" t="n"/>
       <c r="F412" s="2" t="n"/>
       <c r="G412" s="2" t="n"/>
+      <c r="I412" s="2" t="n"/>
     </row>
     <row r="413">
       <c r="E413" s="2" t="n"/>
       <c r="F413" s="2" t="n"/>
       <c r="G413" s="2" t="n"/>
+      <c r="I413" s="2" t="n"/>
     </row>
     <row r="414">
       <c r="E414" s="2" t="n"/>
       <c r="F414" s="2" t="n"/>
       <c r="G414" s="2" t="n"/>
+      <c r="I414" s="2" t="n"/>
     </row>
     <row r="415">
       <c r="E415" s="2" t="n"/>
       <c r="F415" s="2" t="n"/>
       <c r="G415" s="2" t="n"/>
+      <c r="I415" s="2" t="n"/>
     </row>
     <row r="416">
       <c r="E416" s="2" t="n"/>
       <c r="F416" s="2" t="n"/>
       <c r="G416" s="2" t="n"/>
+      <c r="I416" s="2" t="n"/>
     </row>
     <row r="417">
       <c r="E417" s="2" t="n"/>
       <c r="F417" s="2" t="n"/>
       <c r="G417" s="2" t="n"/>
+      <c r="I417" s="2" t="n"/>
     </row>
     <row r="418">
       <c r="E418" s="2" t="n"/>
       <c r="F418" s="2" t="n"/>
       <c r="G418" s="2" t="n"/>
+      <c r="I418" s="2" t="n"/>
     </row>
     <row r="419">
       <c r="E419" s="2" t="n"/>
       <c r="F419" s="2" t="n"/>
       <c r="G419" s="2" t="n"/>
+      <c r="I419" s="2" t="n"/>
     </row>
     <row r="420">
       <c r="E420" s="2" t="n"/>
       <c r="F420" s="2" t="n"/>
       <c r="G420" s="2" t="n"/>
+      <c r="I420" s="2" t="n"/>
     </row>
     <row r="421">
       <c r="E421" s="2" t="n"/>
       <c r="F421" s="2" t="n"/>
       <c r="G421" s="2" t="n"/>
+      <c r="I421" s="2" t="n"/>
     </row>
     <row r="422">
       <c r="E422" s="2" t="n"/>
       <c r="F422" s="2" t="n"/>
       <c r="G422" s="2" t="n"/>
+      <c r="I422" s="2" t="n"/>
     </row>
     <row r="423">
       <c r="E423" s="2" t="n"/>
       <c r="F423" s="2" t="n"/>
       <c r="G423" s="2" t="n"/>
+      <c r="I423" s="2" t="n"/>
     </row>
     <row r="424">
       <c r="E424" s="2" t="n"/>
       <c r="F424" s="2" t="n"/>
       <c r="G424" s="2" t="n"/>
+      <c r="I424" s="2" t="n"/>
     </row>
     <row r="425">
       <c r="E425" s="2" t="n"/>
       <c r="F425" s="2" t="n"/>
       <c r="G425" s="2" t="n"/>
+      <c r="I425" s="2" t="n"/>
     </row>
     <row r="426">
       <c r="E426" s="2" t="n"/>
       <c r="F426" s="2" t="n"/>
       <c r="G426" s="2" t="n"/>
+      <c r="I426" s="2" t="n"/>
     </row>
     <row r="427">
       <c r="E427" s="2" t="n"/>
       <c r="F427" s="2" t="n"/>
       <c r="G427" s="2" t="n"/>
+      <c r="I427" s="2" t="n"/>
     </row>
     <row r="428">
       <c r="E428" s="2" t="n"/>
       <c r="F428" s="2" t="n"/>
       <c r="G428" s="2" t="n"/>
+      <c r="I428" s="2" t="n"/>
     </row>
     <row r="429">
       <c r="E429" s="2" t="n"/>
       <c r="F429" s="2" t="n"/>
       <c r="G429" s="2" t="n"/>
+      <c r="I429" s="2" t="n"/>
     </row>
     <row r="430">
       <c r="E430" s="2" t="n"/>
       <c r="F430" s="2" t="n"/>
       <c r="G430" s="2" t="n"/>
+      <c r="I430" s="2" t="n"/>
     </row>
     <row r="431">
       <c r="E431" s="2" t="n"/>
       <c r="F431" s="2" t="n"/>
       <c r="G431" s="2" t="n"/>
+      <c r="I431" s="2" t="n"/>
     </row>
     <row r="432">
       <c r="E432" s="2" t="n"/>
       <c r="F432" s="2" t="n"/>
       <c r="G432" s="2" t="n"/>
+      <c r="I432" s="2" t="n"/>
     </row>
     <row r="433">
       <c r="E433" s="2" t="n"/>
       <c r="F433" s="2" t="n"/>
       <c r="G433" s="2" t="n"/>
+      <c r="I433" s="2" t="n"/>
     </row>
     <row r="434">
       <c r="E434" s="2" t="n"/>
       <c r="F434" s="2" t="n"/>
       <c r="G434" s="2" t="n"/>
+      <c r="I434" s="2" t="n"/>
     </row>
     <row r="435">
       <c r="E435" s="2" t="n"/>
       <c r="F435" s="2" t="n"/>
       <c r="G435" s="2" t="n"/>
+      <c r="I435" s="2" t="n"/>
     </row>
     <row r="436">
       <c r="E436" s="2" t="n"/>
       <c r="F436" s="2" t="n"/>
       <c r="G436" s="2" t="n"/>
+      <c r="I436" s="2" t="n"/>
     </row>
     <row r="437">
       <c r="E437" s="2" t="n"/>
       <c r="F437" s="2" t="n"/>
       <c r="G437" s="2" t="n"/>
+      <c r="I437" s="2" t="n"/>
     </row>
     <row r="438">
       <c r="E438" s="2" t="n"/>
       <c r="F438" s="2" t="n"/>
       <c r="G438" s="2" t="n"/>
+      <c r="I438" s="2" t="n"/>
     </row>
     <row r="439">
       <c r="E439" s="2" t="n"/>
       <c r="F439" s="2" t="n"/>
       <c r="G439" s="2" t="n"/>
+      <c r="I439" s="2" t="n"/>
     </row>
     <row r="440">
       <c r="E440" s="2" t="n"/>
       <c r="F440" s="2" t="n"/>
       <c r="G440" s="2" t="n"/>
+      <c r="I440" s="2" t="n"/>
     </row>
     <row r="441">
       <c r="E441" s="2" t="n"/>
       <c r="F441" s="2" t="n"/>
       <c r="G441" s="2" t="n"/>
+      <c r="I441" s="2" t="n"/>
     </row>
     <row r="442">
       <c r="E442" s="2" t="n"/>
       <c r="F442" s="2" t="n"/>
       <c r="G442" s="2" t="n"/>
+      <c r="I442" s="2" t="n"/>
     </row>
     <row r="443">
       <c r="E443" s="2" t="n"/>
       <c r="F443" s="2" t="n"/>
       <c r="G443" s="2" t="n"/>
+      <c r="I443" s="2" t="n"/>
     </row>
     <row r="444">
       <c r="E444" s="2" t="n"/>
       <c r="F444" s="2" t="n"/>
       <c r="G444" s="2" t="n"/>
+      <c r="I444" s="2" t="n"/>
     </row>
     <row r="445">
       <c r="E445" s="2" t="n"/>
       <c r="F445" s="2" t="n"/>
       <c r="G445" s="2" t="n"/>
+      <c r="I445" s="2" t="n"/>
     </row>
     <row r="446">
       <c r="E446" s="2" t="n"/>
       <c r="F446" s="2" t="n"/>
       <c r="G446" s="2" t="n"/>
+      <c r="I446" s="2" t="n"/>
     </row>
     <row r="447">
       <c r="E447" s="2" t="n"/>
       <c r="F447" s="2" t="n"/>
       <c r="G447" s="2" t="n"/>
+      <c r="I447" s="2" t="n"/>
     </row>
     <row r="448">
       <c r="E448" s="2" t="n"/>
       <c r="F448" s="2" t="n"/>
       <c r="G448" s="2" t="n"/>
+      <c r="I448" s="2" t="n"/>
     </row>
     <row r="449">
       <c r="E449" s="2" t="n"/>
       <c r="F449" s="2" t="n"/>
       <c r="G449" s="2" t="n"/>
+      <c r="I449" s="2" t="n"/>
     </row>
     <row r="450">
       <c r="E450" s="2" t="n"/>
       <c r="F450" s="2" t="n"/>
       <c r="G450" s="2" t="n"/>
+      <c r="I450" s="2" t="n"/>
     </row>
     <row r="451">
       <c r="E451" s="2" t="n"/>
       <c r="F451" s="2" t="n"/>
       <c r="G451" s="2" t="n"/>
+      <c r="I451" s="2" t="n"/>
     </row>
     <row r="452">
       <c r="E452" s="2" t="n"/>
       <c r="F452" s="2" t="n"/>
       <c r="G452" s="2" t="n"/>
+      <c r="I452" s="2" t="n"/>
     </row>
     <row r="453">
       <c r="E453" s="2" t="n"/>
       <c r="F453" s="2" t="n"/>
       <c r="G453" s="2" t="n"/>
+      <c r="I453" s="2" t="n"/>
+    </row>
+    <row r="454">
+      <c r="E454" s="2" t="n"/>
+      <c r="F454" s="2" t="n"/>
+      <c r="G454" s="2" t="n"/>
+      <c r="I454" s="2" t="n"/>
+    </row>
+    <row r="455">
+      <c r="E455" s="2" t="n"/>
+      <c r="F455" s="2" t="n"/>
+      <c r="G455" s="2" t="n"/>
+      <c r="I455" s="2" t="n"/>
+    </row>
+    <row r="456">
+      <c r="E456" s="2" t="n"/>
+      <c r="F456" s="2" t="n"/>
+      <c r="G456" s="2" t="n"/>
+      <c r="I456" s="2" t="n"/>
+    </row>
+    <row r="457">
+      <c r="E457" s="2" t="n"/>
+      <c r="F457" s="2" t="n"/>
+      <c r="G457" s="2" t="n"/>
+      <c r="I457" s="2" t="n"/>
+    </row>
+    <row r="458">
+      <c r="E458" s="2" t="n"/>
+      <c r="F458" s="2" t="n"/>
+      <c r="G458" s="2" t="n"/>
+      <c r="I458" s="2" t="n"/>
+    </row>
+    <row r="459">
+      <c r="E459" s="2" t="n"/>
+      <c r="F459" s="2" t="n"/>
+      <c r="G459" s="2" t="n"/>
+      <c r="I459" s="2" t="n"/>
+    </row>
+    <row r="460">
+      <c r="E460" s="2" t="n"/>
+      <c r="F460" s="2" t="n"/>
+      <c r="G460" s="2" t="n"/>
+      <c r="I460" s="2" t="n"/>
+    </row>
+    <row r="461">
+      <c r="E461" s="2" t="n"/>
+      <c r="F461" s="2" t="n"/>
+      <c r="G461" s="2" t="n"/>
+      <c r="I461" s="2" t="n"/>
+    </row>
+    <row r="462">
+      <c r="E462" s="2" t="n"/>
+      <c r="F462" s="2" t="n"/>
+      <c r="G462" s="2" t="n"/>
+      <c r="I462" s="2" t="n"/>
+    </row>
+    <row r="463">
+      <c r="E463" s="2" t="n"/>
+      <c r="F463" s="2" t="n"/>
+      <c r="G463" s="2" t="n"/>
+      <c r="I463" s="2" t="n"/>
+    </row>
+    <row r="464">
+      <c r="E464" s="2" t="n"/>
+      <c r="F464" s="2" t="n"/>
+      <c r="G464" s="2" t="n"/>
+      <c r="I464" s="2" t="n"/>
+    </row>
+    <row r="465">
+      <c r="E465" s="2" t="n"/>
+      <c r="F465" s="2" t="n"/>
+      <c r="G465" s="2" t="n"/>
+      <c r="I465" s="2" t="n"/>
+    </row>
+    <row r="466">
+      <c r="E466" s="2" t="n"/>
+      <c r="F466" s="2" t="n"/>
+      <c r="G466" s="2" t="n"/>
+      <c r="I466" s="2" t="n"/>
+    </row>
+    <row r="467">
+      <c r="E467" s="2" t="n"/>
+      <c r="F467" s="2" t="n"/>
+      <c r="G467" s="2" t="n"/>
+      <c r="I467" s="2" t="n"/>
+    </row>
+    <row r="468">
+      <c r="E468" s="2" t="n"/>
+      <c r="F468" s="2" t="n"/>
+      <c r="G468" s="2" t="n"/>
+      <c r="I468" s="2" t="n"/>
+    </row>
+    <row r="469">
+      <c r="E469" s="2" t="n"/>
+      <c r="F469" s="2" t="n"/>
+      <c r="G469" s="2" t="n"/>
+      <c r="I469" s="2" t="n"/>
+    </row>
+    <row r="470">
+      <c r="E470" s="2" t="n"/>
+      <c r="F470" s="2" t="n"/>
+      <c r="G470" s="2" t="n"/>
+      <c r="I470" s="2" t="n"/>
+    </row>
+    <row r="471">
+      <c r="E471" s="2" t="n"/>
+      <c r="F471" s="2" t="n"/>
+      <c r="G471" s="2" t="n"/>
+      <c r="I471" s="2" t="n"/>
+    </row>
+    <row r="472">
+      <c r="E472" s="2" t="n"/>
+      <c r="F472" s="2" t="n"/>
+      <c r="G472" s="2" t="n"/>
+      <c r="I472" s="2" t="n"/>
+    </row>
+    <row r="473">
+      <c r="E473" s="2" t="n"/>
+      <c r="F473" s="2" t="n"/>
+      <c r="G473" s="2" t="n"/>
+      <c r="I473" s="2" t="n"/>
+    </row>
+    <row r="474">
+      <c r="E474" s="2" t="n"/>
+      <c r="F474" s="2" t="n"/>
+      <c r="G474" s="2" t="n"/>
+      <c r="I474" s="2" t="n"/>
+    </row>
+    <row r="475">
+      <c r="E475" s="2" t="n"/>
+      <c r="F475" s="2" t="n"/>
+      <c r="G475" s="2" t="n"/>
+      <c r="I475" s="2" t="n"/>
+    </row>
+    <row r="476">
+      <c r="E476" s="2" t="n"/>
+      <c r="F476" s="2" t="n"/>
+      <c r="G476" s="2" t="n"/>
+      <c r="I476" s="2" t="n"/>
+    </row>
+    <row r="477">
+      <c r="E477" s="2" t="n"/>
+      <c r="F477" s="2" t="n"/>
+      <c r="G477" s="2" t="n"/>
+      <c r="I477" s="2" t="n"/>
+    </row>
+    <row r="478">
+      <c r="E478" s="2" t="n"/>
+      <c r="F478" s="2" t="n"/>
+      <c r="G478" s="2" t="n"/>
+      <c r="I478" s="2" t="n"/>
+    </row>
+    <row r="479">
+      <c r="E479" s="2" t="n"/>
+      <c r="F479" s="2" t="n"/>
+      <c r="G479" s="2" t="n"/>
+      <c r="I479" s="2" t="n"/>
+    </row>
+    <row r="480">
+      <c r="E480" s="2" t="n"/>
+      <c r="F480" s="2" t="n"/>
+      <c r="G480" s="2" t="n"/>
+      <c r="I480" s="2" t="n"/>
+    </row>
+    <row r="481">
+      <c r="E481" s="2" t="n"/>
+      <c r="F481" s="2" t="n"/>
+      <c r="G481" s="2" t="n"/>
+      <c r="I481" s="2" t="n"/>
+    </row>
+    <row r="482">
+      <c r="E482" s="2" t="n"/>
+      <c r="F482" s="2" t="n"/>
+      <c r="G482" s="2" t="n"/>
+      <c r="I482" s="2" t="n"/>
+    </row>
+    <row r="483">
+      <c r="E483" s="2" t="n"/>
+      <c r="F483" s="2" t="n"/>
+      <c r="G483" s="2" t="n"/>
+      <c r="I483" s="2" t="n"/>
+    </row>
+    <row r="484">
+      <c r="E484" s="2" t="n"/>
+      <c r="F484" s="2" t="n"/>
+      <c r="G484" s="2" t="n"/>
+      <c r="I484" s="2" t="n"/>
+    </row>
+    <row r="485">
+      <c r="E485" s="2" t="n"/>
+      <c r="F485" s="2" t="n"/>
+      <c r="G485" s="2" t="n"/>
+      <c r="I485" s="2" t="n"/>
+    </row>
+    <row r="486">
+      <c r="E486" s="2" t="n"/>
+      <c r="F486" s="2" t="n"/>
+      <c r="G486" s="2" t="n"/>
+      <c r="I486" s="2" t="n"/>
+    </row>
+    <row r="487">
+      <c r="E487" s="2" t="n"/>
+      <c r="F487" s="2" t="n"/>
+      <c r="G487" s="2" t="n"/>
+      <c r="I487" s="2" t="n"/>
+    </row>
+    <row r="488">
+      <c r="E488" s="2" t="n"/>
+      <c r="F488" s="2" t="n"/>
+      <c r="G488" s="2" t="n"/>
+      <c r="I488" s="2" t="n"/>
+    </row>
+    <row r="489">
+      <c r="E489" s="2" t="n"/>
+      <c r="F489" s="2" t="n"/>
+      <c r="G489" s="2" t="n"/>
+      <c r="I489" s="2" t="n"/>
+    </row>
+    <row r="490">
+      <c r="E490" s="2" t="n"/>
+      <c r="F490" s="2" t="n"/>
+      <c r="G490" s="2" t="n"/>
+      <c r="I490" s="2" t="n"/>
+    </row>
+    <row r="491">
+      <c r="E491" s="2" t="n"/>
+      <c r="F491" s="2" t="n"/>
+      <c r="G491" s="2" t="n"/>
+      <c r="I491" s="2" t="n"/>
+    </row>
+    <row r="492">
+      <c r="E492" s="2" t="n"/>
+      <c r="F492" s="2" t="n"/>
+      <c r="G492" s="2" t="n"/>
+      <c r="I492" s="2" t="n"/>
+    </row>
+    <row r="493">
+      <c r="E493" s="2" t="n"/>
+      <c r="F493" s="2" t="n"/>
+      <c r="G493" s="2" t="n"/>
+      <c r="I493" s="2" t="n"/>
+    </row>
+    <row r="494">
+      <c r="E494" s="2" t="n"/>
+      <c r="F494" s="2" t="n"/>
+      <c r="G494" s="2" t="n"/>
+      <c r="I494" s="2" t="n"/>
+    </row>
+    <row r="495">
+      <c r="E495" s="2" t="n"/>
+      <c r="F495" s="2" t="n"/>
+      <c r="G495" s="2" t="n"/>
+      <c r="I495" s="2" t="n"/>
+    </row>
+    <row r="496">
+      <c r="E496" s="2" t="n"/>
+      <c r="F496" s="2" t="n"/>
+      <c r="G496" s="2" t="n"/>
+      <c r="I496" s="2" t="n"/>
+    </row>
+    <row r="497">
+      <c r="E497" s="2" t="n"/>
+      <c r="F497" s="2" t="n"/>
+      <c r="G497" s="2" t="n"/>
+      <c r="I497" s="2" t="n"/>
+    </row>
+    <row r="498">
+      <c r="E498" s="2" t="n"/>
+      <c r="F498" s="2" t="n"/>
+      <c r="G498" s="2" t="n"/>
+      <c r="I498" s="2" t="n"/>
+    </row>
+    <row r="499">
+      <c r="E499" s="2" t="n"/>
+      <c r="F499" s="2" t="n"/>
+      <c r="G499" s="2" t="n"/>
+      <c r="I499" s="2" t="n"/>
+    </row>
+    <row r="500">
+      <c r="E500" s="2" t="n"/>
+      <c r="F500" s="2" t="n"/>
+      <c r="G500" s="2" t="n"/>
+      <c r="I500" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
